--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H2">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J2">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N2">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O2">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P2">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q2">
-        <v>4.928643552901333</v>
+        <v>7.280138162158668</v>
       </c>
       <c r="R2">
-        <v>44.357791976112</v>
+        <v>65.52124345942801</v>
       </c>
       <c r="S2">
-        <v>0.01421689212162362</v>
+        <v>0.05149430236362779</v>
       </c>
       <c r="T2">
-        <v>0.01421689212162362</v>
+        <v>0.05149430236362779</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H3">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J3">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.477125</v>
       </c>
       <c r="O3">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P3">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q3">
-        <v>2.298582927208333</v>
+        <v>4.833458458736112</v>
       </c>
       <c r="R3">
-        <v>20.687246344875</v>
+        <v>43.501126128625</v>
       </c>
       <c r="S3">
-        <v>0.006630364959034179</v>
+        <v>0.03418830327011136</v>
       </c>
       <c r="T3">
-        <v>0.006630364959034181</v>
+        <v>0.03418830327011136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H4">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J4">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N4">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O4">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P4">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q4">
-        <v>36.86311329838767</v>
+        <v>17.20997901117511</v>
       </c>
       <c r="R4">
-        <v>331.768019685489</v>
+        <v>154.889811100576</v>
       </c>
       <c r="S4">
-        <v>0.1063332942228817</v>
+        <v>0.1217306379540417</v>
       </c>
       <c r="T4">
-        <v>0.1063332942228817</v>
+        <v>0.1217306379540417</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.452709</v>
+        <v>30.39114566666667</v>
       </c>
       <c r="H5">
-        <v>43.358127</v>
+        <v>91.17343700000001</v>
       </c>
       <c r="I5">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803364</v>
       </c>
       <c r="J5">
-        <v>0.1476906377370901</v>
+        <v>0.2485034818803363</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N5">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O5">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P5">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q5">
-        <v>7.110337787287333</v>
+        <v>5.809237103037668</v>
       </c>
       <c r="R5">
-        <v>63.993040085586</v>
+        <v>52.28313392733901</v>
       </c>
       <c r="S5">
-        <v>0.02051008643355055</v>
+        <v>0.04109023829255552</v>
       </c>
       <c r="T5">
-        <v>0.02051008643355056</v>
+        <v>0.04109023829255551</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H6">
         <v>137.745872</v>
       </c>
       <c r="I6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J6">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N6">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O6">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P6">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q6">
-        <v>15.65797120275911</v>
+        <v>10.99891604861867</v>
       </c>
       <c r="R6">
-        <v>140.921740824832</v>
+        <v>98.99024443756802</v>
       </c>
       <c r="S6">
-        <v>0.0451661162029203</v>
+        <v>0.07779818130701348</v>
       </c>
       <c r="T6">
-        <v>0.0451661162029203</v>
+        <v>0.07779818130701348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H7">
         <v>137.745872</v>
       </c>
       <c r="I7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J7">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,22 +871,22 @@
         <v>0.477125</v>
       </c>
       <c r="O7">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P7">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q7">
         <v>7.302444353111111</v>
       </c>
       <c r="R7">
-        <v>65.721999178</v>
+        <v>65.72199917800002</v>
       </c>
       <c r="S7">
-        <v>0.02106422638967793</v>
+        <v>0.05165207982827213</v>
       </c>
       <c r="T7">
-        <v>0.02106422638967794</v>
+        <v>0.05165207982827215</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H8">
         <v>137.745872</v>
       </c>
       <c r="I8">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J8">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N8">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O8">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P8">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q8">
-        <v>117.1116475100782</v>
+        <v>26.00103323949511</v>
       </c>
       <c r="R8">
-        <v>1054.004827590704</v>
+        <v>234.009299155456</v>
       </c>
       <c r="S8">
-        <v>0.3378137698467327</v>
+        <v>0.1839120408951542</v>
       </c>
       <c r="T8">
-        <v>0.3378137698467327</v>
+        <v>0.1839120408951543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.91529066666666</v>
+        <v>45.91529066666667</v>
       </c>
       <c r="H9">
         <v>137.745872</v>
       </c>
       <c r="I9">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="J9">
-        <v>0.4692032864180591</v>
+        <v>0.3754419042757282</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N9">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O9">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P9">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q9">
-        <v>22.58906799005511</v>
+        <v>8.776661895642668</v>
       </c>
       <c r="R9">
-        <v>203.301611910496</v>
+        <v>78.98995706078402</v>
       </c>
       <c r="S9">
-        <v>0.06515917397872817</v>
+        <v>0.06207960224528829</v>
       </c>
       <c r="T9">
-        <v>0.06515917397872817</v>
+        <v>0.06207960224528829</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H10">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J10">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N10">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O10">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P10">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q10">
-        <v>0.5029785483537779</v>
+        <v>0.5587397213</v>
       </c>
       <c r="R10">
-        <v>4.526806935184</v>
+        <v>5.028657491700001</v>
       </c>
       <c r="S10">
-        <v>0.001450864053097748</v>
+        <v>0.003952110730637567</v>
       </c>
       <c r="T10">
-        <v>0.001450864053097748</v>
+        <v>0.003952110730637567</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H11">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I11">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J11">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.477125</v>
       </c>
       <c r="O11">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P11">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q11">
-        <v>0.2345752724027778</v>
+        <v>0.3709607114583333</v>
       </c>
       <c r="R11">
-        <v>2.111177451625</v>
+        <v>3.338646403125</v>
       </c>
       <c r="S11">
-        <v>0.0006766428341500981</v>
+        <v>0.002623901169919249</v>
       </c>
       <c r="T11">
-        <v>0.0006766428341500983</v>
+        <v>0.002623901169919249</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H12">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I12">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J12">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N12">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O12">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P12">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q12">
-        <v>3.761959049302556</v>
+        <v>1.320840162933333</v>
       </c>
       <c r="R12">
-        <v>33.857631443723</v>
+        <v>11.8875614664</v>
       </c>
       <c r="S12">
-        <v>0.01085153864259798</v>
+        <v>0.009342644495079856</v>
       </c>
       <c r="T12">
-        <v>0.01085153864259798</v>
+        <v>0.009342644495079856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.474929666666667</v>
+        <v>2.332475</v>
       </c>
       <c r="H13">
-        <v>4.424789000000001</v>
+        <v>6.997425</v>
       </c>
       <c r="I13">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="J13">
-        <v>0.01507214343604052</v>
+        <v>0.01907227076123622</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N13">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O13">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P13">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q13">
-        <v>0.725625081255778</v>
+        <v>0.445850263775</v>
       </c>
       <c r="R13">
-        <v>6.530625731302001</v>
+        <v>4.012652373975</v>
       </c>
       <c r="S13">
-        <v>0.002093097906194697</v>
+        <v>0.003153614365599547</v>
       </c>
       <c r="T13">
-        <v>0.002093097906194697</v>
+        <v>0.003153614365599547</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H14">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I14">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J14">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.3410186666666666</v>
+        <v>0.239548</v>
       </c>
       <c r="N14">
-        <v>1.023056</v>
+        <v>0.7186440000000001</v>
       </c>
       <c r="O14">
-        <v>0.0962612954988499</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="P14">
-        <v>0.09626129549884992</v>
+        <v>0.2072176292017679</v>
       </c>
       <c r="Q14">
-        <v>12.28180808213867</v>
+        <v>10.458126217904</v>
       </c>
       <c r="R14">
-        <v>110.536272739248</v>
+        <v>94.123135961136</v>
       </c>
       <c r="S14">
-        <v>0.03542742312120823</v>
+        <v>0.07397303480048908</v>
       </c>
       <c r="T14">
-        <v>0.03542742312120823</v>
+        <v>0.07397303480048908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H15">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I15">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J15">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.477125</v>
       </c>
       <c r="O15">
-        <v>0.04489360368825241</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="P15">
-        <v>0.04489360368825242</v>
+        <v>0.1375767575223525</v>
       </c>
       <c r="Q15">
-        <v>5.727895326541667</v>
+        <v>6.943401004833333</v>
       </c>
       <c r="R15">
-        <v>51.551057938875</v>
+        <v>62.4906090435</v>
       </c>
       <c r="S15">
-        <v>0.0165223695053902</v>
+        <v>0.04911247325404977</v>
       </c>
       <c r="T15">
-        <v>0.0165223695053902</v>
+        <v>0.04911247325404978</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,46 +1405,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H16">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I16">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J16">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2.550602333333333</v>
+        <v>0.5662826666666666</v>
       </c>
       <c r="N16">
-        <v>7.651807</v>
+        <v>1.698848</v>
       </c>
       <c r="O16">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="P16">
-        <v>0.7199731536955634</v>
+        <v>0.4898548585031879</v>
       </c>
       <c r="Q16">
-        <v>91.86009862174234</v>
+        <v>24.72262595810133</v>
       </c>
       <c r="R16">
-        <v>826.7408875956811</v>
+        <v>222.503633622912</v>
       </c>
       <c r="S16">
-        <v>0.2649745509833509</v>
+        <v>0.1748695351589121</v>
       </c>
       <c r="T16">
-        <v>0.2649745509833509</v>
+        <v>0.1748695351589122</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.015061</v>
+        <v>43.657748</v>
       </c>
       <c r="H17">
-        <v>108.045183</v>
+        <v>130.973244</v>
       </c>
       <c r="I17">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="J17">
-        <v>0.3680339324088102</v>
+        <v>0.3569823430826993</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.4919726666666667</v>
+        <v>0.191149</v>
       </c>
       <c r="N17">
-        <v>1.475918</v>
+        <v>0.573447</v>
       </c>
       <c r="O17">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="P17">
-        <v>0.1388719471173343</v>
+        <v>0.1653507547726916</v>
       </c>
       <c r="Q17">
-        <v>17.71842560033267</v>
+        <v>8.345134872452</v>
       </c>
       <c r="R17">
-        <v>159.465830402994</v>
+        <v>75.106213852068</v>
       </c>
       <c r="S17">
-        <v>0.05110958879886088</v>
+        <v>0.05902729986924828</v>
       </c>
       <c r="T17">
-        <v>0.05110958879886088</v>
+        <v>0.05902729986924828</v>
       </c>
     </row>
   </sheetData>
